--- a/playlist_03/playlist_03.xlsx
+++ b/playlist_03/playlist_03.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -43,13 +43,13 @@
     <t xml:space="preserve">RedeCanais.br</t>
   </si>
   <si>
-    <t xml:space="preserve">Westworld Legendado S02E05</t>
+    <t xml:space="preserve">Westworld Legendado S02E08</t>
   </si>
   <si>
     <t xml:space="preserve">SERIES | HBOMAX</t>
   </si>
   <si>
-    <t xml:space="preserve">https://link.encrypted-encrypted-encrypted-encrypted-encrypted-encrypted.link/player3/server13hlb.php?vid=c0hEOUJON1ZWbGNmR3poMjVtcFQwZ3Z2dEkwaEpnR3ZhQT09TAG</t>
+    <t xml:space="preserve">https://photos.onedrive.com/share/67ACA41106037892!228370?cid=67ACA41106037892&amp;resId=67ACA41106037892!228370&amp;authkey=!AIQ7zToH3MUadjA&amp;ithint=video&amp;e=ScYmnZ</t>
   </si>
 </sst>
 </file>
@@ -59,11 +59,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,6 +80,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,8 +131,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -148,10 +160,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.34"/>
@@ -190,11 +202,14 @@
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://photos.onedrive.com/share/67ACA41106037892!228370?cid=67ACA41106037892&amp;resId=67ACA41106037892!228370&amp;authkey=!AIQ7zToH3MUadjA&amp;ithint=video&amp;e=ScYmnZ"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/playlist_03/playlist_03.xlsx
+++ b/playlist_03/playlist_03.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">SERIES | HBOMAX</t>
   </si>
   <si>
-    <t xml:space="preserve">https://photos.onedrive.com/share/67ACA41106037892!228370?cid=67ACA41106037892&amp;resId=67ACA41106037892!228370&amp;authkey=!AIQ7zToH3MUadjA&amp;ithint=video&amp;e=ScYmnZ</t>
+    <t xml:space="preserve">https://public.bn.files.1drv.com/y4m63SollyntM7cuWJRQsFeiAmySoeXP-YwbNZB1oBxpritWCWqFyrzotFxkgy6FFoonqIUjlUkZLe1TLsFHPLzPtDblRiZ2alCHwc50_IJlkgq8scq1ZzYCfyNvkTxOLthMdQp_m50yzVQ87hzGyKCjxMjUUhgnEgaFXknSWGc8Se6aGkk7Wl8aqUS4pLxPPuysb7rWgq9cIJhG_RAJPIyfQbXEfrO1Mjs6uEmPb4B_CE?AVOverride=1</t>
   </si>
 </sst>
 </file>
@@ -160,10 +160,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.34"/>
@@ -208,7 +208,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://photos.onedrive.com/share/67ACA41106037892!228370?cid=67ACA41106037892&amp;resId=67ACA41106037892!228370&amp;authkey=!AIQ7zToH3MUadjA&amp;ithint=video&amp;e=ScYmnZ"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://public.bn.files.1drv.com/y4m63SollyntM7cuWJRQsFeiAmySoeXP-YwbNZB1oBxpritWCWqFyrzotFxkgy6FFoonqIUjlUkZLe1TLsFHPLzPtDblRiZ2alCHwc50_IJlkgq8scq1ZzYCfyNvkTxOLthMdQp_m50yzVQ87hzGyKCjxMjUUhgnEgaFXknSWGc8Se6aGkk7Wl8aqUS4pLxPPuysb7rWgq9cIJhG_RAJPIyfQbXEfrO1Mjs6uEmPb4B_CE?AVOverride=1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/playlist_03/playlist_03.xlsx
+++ b/playlist_03/playlist_03.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">Duration</t>
   </si>
@@ -43,13 +43,19 @@
     <t xml:space="preserve">RedeCanais.br</t>
   </si>
   <si>
-    <t xml:space="preserve">Westworld Legendado S02E08</t>
+    <t xml:space="preserve">Westworld Legendado S02E08 Teste 1</t>
   </si>
   <si>
     <t xml:space="preserve">SERIES | HBOMAX</t>
   </si>
   <si>
-    <t xml:space="preserve">https://public.bn.files.1drv.com/y4m63SollyntM7cuWJRQsFeiAmySoeXP-YwbNZB1oBxpritWCWqFyrzotFxkgy6FFoonqIUjlUkZLe1TLsFHPLzPtDblRiZ2alCHwc50_IJlkgq8scq1ZzYCfyNvkTxOLthMdQp_m50yzVQ87hzGyKCjxMjUUhgnEgaFXknSWGc8Se6aGkk7Wl8aqUS4pLxPPuysb7rWgq9cIJhG_RAJPIyfQbXEfrO1Mjs6uEmPb4B_CE?AVOverride=1</t>
+    <t xml:space="preserve">https://previews.dropbox.com/p/hls_master_playlist/ACEraY579O5Y0j_zczLeA9XRskiivDmDDNWaIBykwh9PTDuTwCsOpeFU1HJlpJwxaLzdmGbr-TzO5vohN0DXmlZS_l7htSRHD3kKqowg0B5vj4zryiNwznhHSFfOkYdT_wvubJ-5gxc7pfYG6q1qsK_4_nZXJmsjF9xZM1X-cjxBv23DB2_fhOpl6jelJBXVwoS_t0CafPag3nlDy2iIS52Ej4kCklCyQEhT-tFHAcNbFgF6AGl_niOlUjZBl8vUh7hS5SWWtQS6iFtjUaEH3M3SmJgVdcWVslQWz3LFTBFvmg/p.m3u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westworld Legendado S02E08 Teste 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dropbox.com/scl/fi/yqe61a7cdnjeygvwuroj0/WSTWRLDS02EP08.mp4?rlkey=gt2nxgj79c587t0wby9c0bmou&amp;dl=0</t>
   </si>
 </sst>
 </file>
@@ -157,13 +163,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.34"/>
@@ -206,9 +212,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://public.bn.files.1drv.com/y4m63SollyntM7cuWJRQsFeiAmySoeXP-YwbNZB1oBxpritWCWqFyrzotFxkgy6FFoonqIUjlUkZLe1TLsFHPLzPtDblRiZ2alCHwc50_IJlkgq8scq1ZzYCfyNvkTxOLthMdQp_m50yzVQ87hzGyKCjxMjUUhgnEgaFXknSWGc8Se6aGkk7Wl8aqUS4pLxPPuysb7rWgq9cIJhG_RAJPIyfQbXEfrO1Mjs6uEmPb4B_CE?AVOverride=1"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://previews.dropbox.com/p/hls_master_playlist/ACEraY579O5Y0j_zczLeA9XRskiivDmDDNWaIBykwh9PTDuTwCsOpeFU1HJlpJwxaLzdmGbr-TzO5vohN0DXmlZS_l7htSRHD3kKqowg0B5vj4zryiNwznhHSFfOkYdT_wvubJ-5gxc7pfYG6q1qsK_4_nZXJmsjF9xZM1X-cjxBv23DB2_fhOpl6jelJBXVwoS_t0CafPag3nlDy2iIS52Ej4kCklCyQEhT-tFHAcNbFgF6AGl_niOlUjZBl8vUh7hS5SWWtQS6iFtjUaEH3M3SmJgVdcWVslQWz3LFTBFvmg/p.m3u8"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/playlist_03/playlist_03.xlsx
+++ b/playlist_03/playlist_03.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Westworld Legendado S02E08 Teste 2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/scl/fi/yqe61a7cdnjeygvwuroj0/WSTWRLDS02EP08.mp4?rlkey=gt2nxgj79c587t0wby9c0bmou&amp;dl=0</t>
+    <t xml:space="preserve">https://embed-cloudfront.wistia.com/deliveries/b1f6c191008d5794e0e6e30108ac7913929b865d.m3u8</t>
   </si>
 </sst>
 </file>
@@ -166,10 +166,10 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.34"/>
@@ -225,13 +225,14 @@
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://previews.dropbox.com/p/hls_master_playlist/ACEraY579O5Y0j_zczLeA9XRskiivDmDDNWaIBykwh9PTDuTwCsOpeFU1HJlpJwxaLzdmGbr-TzO5vohN0DXmlZS_l7htSRHD3kKqowg0B5vj4zryiNwznhHSFfOkYdT_wvubJ-5gxc7pfYG6q1qsK_4_nZXJmsjF9xZM1X-cjxBv23DB2_fhOpl6jelJBXVwoS_t0CafPag3nlDy2iIS52Ej4kCklCyQEhT-tFHAcNbFgF6AGl_niOlUjZBl8vUh7hS5SWWtQS6iFtjUaEH3M3SmJgVdcWVslQWz3LFTBFvmg/p.m3u8"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://embed-cloudfront.wistia.com/deliveries/b1f6c191008d5794e0e6e30108ac7913929b865d.m3u8"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/playlist_03/playlist_03.xlsx
+++ b/playlist_03/playlist_03.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t xml:space="preserve">Duration</t>
   </si>
@@ -49,13 +49,22 @@
     <t xml:space="preserve">SERIES | HBOMAX</t>
   </si>
   <si>
-    <t xml:space="preserve">https://previews.dropbox.com/p/hls_master_playlist/ACEraY579O5Y0j_zczLeA9XRskiivDmDDNWaIBykwh9PTDuTwCsOpeFU1HJlpJwxaLzdmGbr-TzO5vohN0DXmlZS_l7htSRHD3kKqowg0B5vj4zryiNwznhHSFfOkYdT_wvubJ-5gxc7pfYG6q1qsK_4_nZXJmsjF9xZM1X-cjxBv23DB2_fhOpl6jelJBXVwoS_t0CafPag3nlDy2iIS52Ej4kCklCyQEhT-tFHAcNbFgF6AGl_niOlUjZBl8vUh7hS5SWWtQS6iFtjUaEH3M3SmJgVdcWVslQWz3LFTBFvmg/p.m3u8</t>
+    <t xml:space="preserve">https://public.bn.files.1drv.com/y4m63SollyntM7cuWJRQsFeiAmySoeXP-YwbNZB1oBxpritWCWqFyrzotFxkgy6FFoonqIUjlUkZLe1TLsFHPLzPtDblRiZ2alCHwc50_IJlkgq8scq1ZzYCfyNvkTxOLthMdQp_m50yzVQ87hzGyKCjxMjUUhgnEgaFXknSWGc8Se6aGkk7Wl8aqUS4pLxPPuysb7rWgq9cIJhG_RAJPIyfQbXEfrO1Mjs6uEmPb4B_CE?AVOverride=1</t>
   </si>
   <si>
     <t xml:space="preserve">Westworld Legendado S02E08 Teste 2</t>
   </si>
   <si>
     <t xml:space="preserve">https://embed-cloudfront.wistia.com/deliveries/b1f6c191008d5794e0e6e30108ac7913929b865d.m3u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westworld Legendado S02E08 Teste 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westworld Legendado S02E09 Teste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rr2---sn-bg0eznz7.c.drive.google.com/videoplayback?expire=1699585969&amp;ei=gXVNZcXxJcGvxtYP2KK8iAI&amp;ip=2804:7f7:e18e:3468:5706:78c3:f35b:1930&amp;id=3e2c666e142c5168&amp;itag=18&amp;source=webdrive&amp;requiressl=yes&amp;xpc=EghonaK1InoBAQ==&amp;sc=yes&amp;ttl=transient&amp;susc=dr&amp;driveid=1ZzKksR6bC1pb3CE_xbDoi6jWcxP4Xw8V&amp;app=explorer&amp;eaua=INTib02aLXo&amp;mime=video/mp4&amp;vprv=1&amp;prv=1&amp;dur=3610.958&amp;lmt=1699574941452685&amp;subapp=DRIVE_WEB_FILE_VIEWER&amp;txp=0006224&amp;sparams=expire,ei,ip,id,itag,source,requiressl,xpc,ttl,susc,driveid,app,eaua,mime,vprv,prv,dur,lmt&amp;sig=ANLwegAwRQIhAIFO_M5iWLiZmJK4zKDHcjlyVB_kKcxdpK2icRSTeOM_AiBurT3ddukPr7v-UcQwBAjgU5ZGeUD7aazBUbMckBub_A==&amp;cpn=sB7fkHOmKJEij_7k&amp;c=WEB_EMBEDDED_PLAYER&amp;cver=1.20231107.01.00&amp;redirect_counter=1&amp;cm2rm=sn-gpvlk7l&amp;fexp=24350045&amp;req_id=2f0ca6893b03a3ee&amp;cms_redirect=yes&amp;cmsv=e&amp;mh=rI&amp;mm=34&amp;mn=sn-bg0eznz7&amp;ms=ltu&amp;mt=1699574917&amp;mv=m&amp;mvi=2&amp;pl=52&amp;lsparams=mh,mm,mn,ms,mv,mvi,pl,sc&amp;lsig=AM8Gb2swRgIhALYcj-6_52pBlQjfP2NuHUnxhZIUhv_WSGZPg5uIgKoNAiEAzcLDWPVjfYZrM0ABd7Sy9FdhQSBgexaBFWMk1ix8OcU%3D</t>
   </si>
 </sst>
 </file>
@@ -163,13 +172,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.34"/>
@@ -229,9 +238,40 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://previews.dropbox.com/p/hls_master_playlist/ACEraY579O5Y0j_zczLeA9XRskiivDmDDNWaIBykwh9PTDuTwCsOpeFU1HJlpJwxaLzdmGbr-TzO5vohN0DXmlZS_l7htSRHD3kKqowg0B5vj4zryiNwznhHSFfOkYdT_wvubJ-5gxc7pfYG6q1qsK_4_nZXJmsjF9xZM1X-cjxBv23DB2_fhOpl6jelJBXVwoS_t0CafPag3nlDy2iIS52Ej4kCklCyQEhT-tFHAcNbFgF6AGl_niOlUjZBl8vUh7hS5SWWtQS6iFtjUaEH3M3SmJgVdcWVslQWz3LFTBFvmg/p.m3u8"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://public.bn.files.1drv.com/y4m63SollyntM7cuWJRQsFeiAmySoeXP-YwbNZB1oBxpritWCWqFyrzotFxkgy6FFoonqIUjlUkZLe1TLsFHPLzPtDblRiZ2alCHwc50_IJlkgq8scq1ZzYCfyNvkTxOLthMdQp_m50yzVQ87hzGyKCjxMjUUhgnEgaFXknSWGc8Se6aGkk7Wl8aqUS4pLxPPuysb7rWgq9cIJhG_RAJPIyfQbXEfrO1Mjs6uEmPb4B_CE?AVOverride=1"/>
     <hyperlink ref="F3" r:id="rId2" display="https://embed-cloudfront.wistia.com/deliveries/b1f6c191008d5794e0e6e30108ac7913929b865d.m3u8"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
